--- a/data/knowledge_points.xlsx
+++ b/data/knowledge_points.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\31369\Desktop\KnowLedge\Knowledge_\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC183049-8E97-485E-B27C-E61E32961C6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C190D550-2F86-4C1B-B0B1-424062EB00E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11829" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="新建_文本文档" localSheetId="0">Sheet1!$A$2:$A$2</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -22,6 +25,18 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{34A0AE9D-C8F5-48A3-A181-FCFE6CD3F5FB}" name="新建 文本文档" type="6" refreshedVersion="8" background="1" saveData="1">
+    <textPr codePage="65001" sourceFile="C:\Users\31369\Desktop\新建 文本文档.txt" delimited="0">
+      <textFields>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+</connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -436,6 +451,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="新建 文本文档" connectionId="1" xr16:uid="{6C0AC17A-6813-4C9A-A27C-BE688CCB2E9F}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -703,11 +722,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C113"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="1" max="1" width="17.35546875" customWidth="1"/>
     <col min="2" max="2" width="55.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -738,7 +759,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="C3" t="s">
         <v>114</v>
@@ -749,7 +770,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
+        <v>60</v>
       </c>
       <c r="C4" t="s">
         <v>114</v>
@@ -760,7 +781,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C5" t="s">
         <v>114</v>
@@ -771,7 +792,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="C6" t="s">
         <v>114</v>
@@ -782,7 +803,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>61</v>
       </c>
       <c r="C7" t="s">
         <v>114</v>
@@ -793,7 +814,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C8" t="s">
         <v>114</v>
@@ -804,7 +825,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C9" t="s">
         <v>114</v>
@@ -815,7 +836,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C10" t="s">
         <v>114</v>
@@ -826,7 +847,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="C11" t="s">
         <v>114</v>
@@ -837,7 +858,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>10</v>
+        <v>62</v>
       </c>
       <c r="C12" t="s">
         <v>114</v>
@@ -848,7 +869,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>11</v>
+        <v>88</v>
       </c>
       <c r="C13" t="s">
         <v>114</v>
@@ -859,7 +880,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>12</v>
+        <v>103</v>
       </c>
       <c r="C14" t="s">
         <v>114</v>
@@ -870,7 +891,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>13</v>
+        <v>105</v>
       </c>
       <c r="C15" t="s">
         <v>114</v>
@@ -881,7 +902,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C16" t="s">
         <v>114</v>
@@ -892,7 +913,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="C17" t="s">
         <v>114</v>
@@ -903,7 +924,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>16</v>
+        <v>63</v>
       </c>
       <c r="C18" t="s">
         <v>114</v>
@@ -914,7 +935,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>17</v>
+        <v>89</v>
       </c>
       <c r="C19" t="s">
         <v>114</v>
@@ -925,7 +946,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>18</v>
+        <v>104</v>
       </c>
       <c r="C20" t="s">
         <v>114</v>
@@ -936,7 +957,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>19</v>
+        <v>106</v>
       </c>
       <c r="C21" t="s">
         <v>114</v>
@@ -947,7 +968,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="C22" t="s">
         <v>114</v>
@@ -958,7 +979,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="C23" t="s">
         <v>114</v>
@@ -969,7 +990,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>22</v>
+        <v>64</v>
       </c>
       <c r="C24" t="s">
         <v>114</v>
@@ -980,7 +1001,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="C25" t="s">
         <v>114</v>
@@ -991,7 +1012,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="C26" t="s">
         <v>114</v>
@@ -1002,7 +1023,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="C27" t="s">
         <v>114</v>
@@ -1013,7 +1034,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
         <v>114</v>
@@ -1024,7 +1045,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="C29" t="s">
         <v>114</v>
@@ -1035,7 +1056,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>28</v>
+        <v>66</v>
       </c>
       <c r="C30" t="s">
         <v>114</v>
@@ -1046,7 +1067,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="C31" t="s">
         <v>114</v>
@@ -1057,7 +1078,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="C32" t="s">
         <v>114</v>
@@ -1068,7 +1089,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>31</v>
+        <v>67</v>
       </c>
       <c r="C33" t="s">
         <v>114</v>
@@ -1079,7 +1100,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>32</v>
+        <v>90</v>
       </c>
       <c r="C34" t="s">
         <v>114</v>
@@ -1090,7 +1111,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="C35" t="s">
         <v>114</v>
@@ -1101,7 +1122,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="C36" t="s">
         <v>114</v>
@@ -1112,7 +1133,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C37" t="s">
         <v>114</v>
@@ -1123,7 +1144,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>36</v>
+        <v>68</v>
       </c>
       <c r="C38" t="s">
         <v>114</v>
@@ -1134,7 +1155,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="C39" t="s">
         <v>114</v>
@@ -1145,7 +1166,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C40" t="s">
         <v>114</v>
@@ -1156,7 +1177,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>39</v>
+        <v>69</v>
       </c>
       <c r="C41" t="s">
         <v>114</v>
@@ -1167,7 +1188,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="C42" t="s">
         <v>114</v>
@@ -1178,7 +1199,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C43" t="s">
         <v>114</v>
@@ -1189,7 +1210,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>42</v>
+        <v>70</v>
       </c>
       <c r="C44" t="s">
         <v>114</v>
@@ -1200,7 +1221,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="C45" t="s">
         <v>114</v>
@@ -1211,7 +1232,7 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C46" t="s">
         <v>114</v>
@@ -1222,7 +1243,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>45</v>
+        <v>71</v>
       </c>
       <c r="C47" t="s">
         <v>114</v>
@@ -1233,7 +1254,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>46</v>
+        <v>91</v>
       </c>
       <c r="C48" t="s">
         <v>114</v>
@@ -1244,7 +1265,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="C49" t="s">
         <v>114</v>
@@ -1255,7 +1276,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C50" t="s">
         <v>114</v>
@@ -1266,7 +1287,7 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>49</v>
+        <v>72</v>
       </c>
       <c r="C51" t="s">
         <v>114</v>
@@ -1277,7 +1298,7 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>50</v>
+        <v>92</v>
       </c>
       <c r="C52" t="s">
         <v>114</v>
@@ -1288,7 +1309,7 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>51</v>
+        <v>107</v>
       </c>
       <c r="C53" t="s">
         <v>114</v>
@@ -1299,7 +1320,7 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="C54" t="s">
         <v>114</v>
@@ -1310,7 +1331,7 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="C55" t="s">
         <v>114</v>
@@ -1321,7 +1342,7 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="C56" t="s">
         <v>114</v>
@@ -1332,7 +1353,7 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="C57" t="s">
         <v>114</v>
@@ -1343,7 +1364,7 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>56</v>
+        <v>93</v>
       </c>
       <c r="C58" t="s">
         <v>114</v>
@@ -1354,7 +1375,7 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>57</v>
+        <v>18</v>
       </c>
       <c r="C59" t="s">
         <v>114</v>
@@ -1365,7 +1386,7 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="C60" t="s">
         <v>114</v>
@@ -1376,7 +1397,7 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="C61" t="s">
         <v>114</v>
@@ -1387,7 +1408,7 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>60</v>
+        <v>19</v>
       </c>
       <c r="C62" t="s">
         <v>114</v>
@@ -1398,7 +1419,7 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="C63" t="s">
         <v>114</v>
@@ -1409,7 +1430,7 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="C64" t="s">
         <v>114</v>
@@ -1420,7 +1441,7 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>63</v>
+        <v>20</v>
       </c>
       <c r="C65" t="s">
         <v>114</v>
@@ -1431,7 +1452,7 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="C66" t="s">
         <v>114</v>
@@ -1442,7 +1463,7 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="C67" t="s">
         <v>114</v>
@@ -1453,7 +1474,7 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>66</v>
+        <v>94</v>
       </c>
       <c r="C68" t="s">
         <v>114</v>
@@ -1464,7 +1485,7 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>67</v>
+        <v>21</v>
       </c>
       <c r="C69" t="s">
         <v>114</v>
@@ -1475,7 +1496,7 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="C70" t="s">
         <v>114</v>
@@ -1486,7 +1507,7 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="C71" t="s">
         <v>114</v>
@@ -1497,7 +1518,7 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>70</v>
+        <v>22</v>
       </c>
       <c r="C72" t="s">
         <v>114</v>
@@ -1508,7 +1529,7 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="C73" t="s">
         <v>114</v>
@@ -1519,7 +1540,7 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="C74" t="s">
         <v>114</v>
@@ -1530,7 +1551,7 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>73</v>
+        <v>95</v>
       </c>
       <c r="C75" t="s">
         <v>114</v>
@@ -1541,7 +1562,7 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>74</v>
+        <v>23</v>
       </c>
       <c r="C76" t="s">
         <v>114</v>
@@ -1552,7 +1573,7 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="C77" t="s">
         <v>114</v>
@@ -1563,7 +1584,7 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C78" t="s">
         <v>114</v>
@@ -1574,7 +1595,7 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>77</v>
+        <v>24</v>
       </c>
       <c r="C79" t="s">
         <v>114</v>
@@ -1585,7 +1606,7 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>78</v>
+        <v>52</v>
       </c>
       <c r="C80" t="s">
         <v>114</v>
@@ -1596,7 +1617,7 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C81" t="s">
         <v>114</v>
@@ -1607,7 +1628,7 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>80</v>
+        <v>25</v>
       </c>
       <c r="C82" t="s">
         <v>114</v>
@@ -1618,7 +1639,7 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>81</v>
+        <v>53</v>
       </c>
       <c r="C83" t="s">
         <v>114</v>
@@ -1629,7 +1650,7 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C84" t="s">
         <v>114</v>
@@ -1640,7 +1661,7 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="C85" t="s">
         <v>114</v>
@@ -1651,7 +1672,7 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>84</v>
+        <v>26</v>
       </c>
       <c r="C86" t="s">
         <v>114</v>
@@ -1662,7 +1683,7 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>85</v>
+        <v>54</v>
       </c>
       <c r="C87" t="s">
         <v>114</v>
@@ -1673,7 +1694,7 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C88" t="s">
         <v>114</v>
@@ -1684,7 +1705,7 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="C89" t="s">
         <v>114</v>
@@ -1695,7 +1716,7 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>88</v>
+        <v>108</v>
       </c>
       <c r="C90" t="s">
         <v>114</v>
@@ -1706,7 +1727,7 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>89</v>
+        <v>27</v>
       </c>
       <c r="C91" t="s">
         <v>114</v>
@@ -1717,7 +1738,7 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>90</v>
+        <v>55</v>
       </c>
       <c r="C92" t="s">
         <v>114</v>
@@ -1728,7 +1749,7 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="C93" t="s">
         <v>114</v>
@@ -1739,7 +1760,7 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="C94" t="s">
         <v>114</v>
@@ -1750,7 +1771,7 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>93</v>
+        <v>28</v>
       </c>
       <c r="C95" t="s">
         <v>114</v>
@@ -1761,7 +1782,7 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>94</v>
+        <v>56</v>
       </c>
       <c r="C96" t="s">
         <v>114</v>
@@ -1772,7 +1793,7 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="C97" t="s">
         <v>114</v>
@@ -1783,7 +1804,7 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C98" t="s">
         <v>114</v>
@@ -1794,7 +1815,7 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>97</v>
+        <v>29</v>
       </c>
       <c r="C99" t="s">
         <v>114</v>
@@ -1805,7 +1826,7 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>98</v>
+        <v>57</v>
       </c>
       <c r="C100" t="s">
         <v>114</v>
@@ -1816,7 +1837,7 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="C101" t="s">
         <v>114</v>
@@ -1838,7 +1859,7 @@
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="C103" t="s">
         <v>114</v>
@@ -1849,7 +1870,7 @@
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="C104" t="s">
         <v>114</v>
@@ -1860,7 +1881,7 @@
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>103</v>
+        <v>30</v>
       </c>
       <c r="C105" t="s">
         <v>114</v>
@@ -1871,7 +1892,7 @@
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>104</v>
+        <v>58</v>
       </c>
       <c r="C106" t="s">
         <v>114</v>
@@ -1882,7 +1903,7 @@
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="C107" t="s">
         <v>114</v>
@@ -1893,7 +1914,7 @@
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C108" t="s">
         <v>114</v>
@@ -1904,7 +1925,7 @@
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C109" t="s">
         <v>114</v>
@@ -1915,7 +1936,7 @@
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>108</v>
+        <v>31</v>
       </c>
       <c r="C110" t="s">
         <v>114</v>
@@ -1926,7 +1947,7 @@
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>109</v>
+        <v>59</v>
       </c>
       <c r="C111" t="s">
         <v>114</v>
@@ -1937,7 +1958,7 @@
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>110</v>
+        <v>87</v>
       </c>
       <c r="C112" t="s">
         <v>114</v>
@@ -1948,7 +1969,7 @@
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="C113" t="s">
         <v>114</v>
